--- a/ODR resistance curve.xlsx
+++ b/ODR resistance curve.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbrock\Documents\House_Maintenance\Nest\boiler-boost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbrock\Documents\GitHub\nest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="4680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Humidity Curve" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">Sheet1!$A$1</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Outside Temperature (°F)</t>
   </si>
@@ -73,6 +74,63 @@
   </si>
   <si>
     <t>94k</t>
+  </si>
+  <si>
+    <t>if temperature &gt;= 50:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hum_value = 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif temperature &gt;= 35:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hum_value = 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif temperature &gt;= 30:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hum_value = 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif temperature &gt;= 23:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hum_value = 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif temperature &gt;= 14:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hum_value = 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif temperature &gt;= -4:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hum_value = 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    elif temperature &gt;= -13:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        hum_value = 25</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Pred(Hum)</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Intercept</t>
   </si>
 </sst>
 </file>
@@ -1100,6 +1158,435 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Humidity Curve'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Humidity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8084645669291344E-2"/>
+                  <c:y val="0.29125000000000001"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Humidity Curve'!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Humidity Curve'!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF89-4FF1-AE1E-C3F9716A7DD5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="193551400"/>
+        <c:axId val="193546808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="193551400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193546808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="193546808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="-20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193551400"/>
+        <c:crossesAt val="-20"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1180,6 +1667,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1697,6 +2224,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2261,6 +3304,41 @@
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2551,9 +3629,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +3656,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>-22</v>
       </c>
@@ -2607,7 +3685,7 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
     </row>
-    <row r="3" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>-13</v>
       </c>
@@ -2625,7 +3703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>-4</v>
       </c>
@@ -2640,7 +3718,7 @@
         <v>22.91</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>5</v>
       </c>
@@ -2652,7 +3730,7 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>14</v>
       </c>
@@ -2664,7 +3742,7 @@
         <v>12.93</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>23</v>
       </c>
@@ -2684,7 +3762,7 @@
         <v>145950</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>32</v>
       </c>
@@ -2699,7 +3777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>41</v>
       </c>
@@ -2714,7 +3792,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>50</v>
       </c>
@@ -2729,7 +3807,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>59</v>
       </c>
@@ -2744,7 +3822,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>68</v>
       </c>
@@ -2759,7 +3837,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>77</v>
       </c>
@@ -2767,7 +3845,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>86</v>
       </c>
@@ -2775,7 +3853,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>95</v>
       </c>
@@ -2783,7 +3861,7 @@
         <v>8054</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>104</v>
       </c>
@@ -2791,7 +3869,7 @@
         <v>6652</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>113</v>
       </c>
@@ -2810,13 +3888,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+    <sheetView topLeftCell="G4" workbookViewId="0">
       <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2824,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-14</v>
       </c>
@@ -2832,7 +3910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>68</v>
       </c>
@@ -2840,7 +3918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S4" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +3929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S5">
         <v>-14</v>
       </c>
@@ -2864,7 +3942,7 @@
         <v>123326.90344559422</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S6">
         <v>-10</v>
       </c>
@@ -2877,7 +3955,7 @@
         <v>111590.79688808155</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S7">
         <v>-5</v>
       </c>
@@ -2890,7 +3968,7 @@
         <v>98478.532610678682</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S8">
         <v>0</v>
       </c>
@@ -2903,7 +3981,7 @@
         <v>86907</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S9">
         <v>5</v>
       </c>
@@ -2916,7 +3994,7 @@
         <v>76695.158312919433</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S10">
         <v>10</v>
       </c>
@@ -2929,7 +4007,7 @@
         <v>67683.239654386591</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S11">
         <v>15</v>
       </c>
@@ -2942,7 +4020,7 @@
         <v>59730.249351887025</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S12">
         <v>20</v>
       </c>
@@ -2955,7 +4033,7 @@
         <v>52711.760043645831</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S13">
         <v>25</v>
       </c>
@@ -2968,7 +4046,7 @@
         <v>46517.964968299886</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S14">
         <v>30</v>
       </c>
@@ -2981,7 +4059,7 @@
         <v>41051.959999063365</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S15">
         <v>35</v>
       </c>
@@ -2994,7 +4072,7 @@
         <v>36228.227544200126</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="S16">
         <v>40</v>
       </c>
@@ -3007,7 +4085,7 @@
         <v>31971.298593886539</v>
       </c>
     </row>
-    <row r="17" spans="19:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S17">
         <v>45</v>
       </c>
@@ -3020,7 +4098,7 @@
         <v>28214.571980712102</v>
       </c>
     </row>
-    <row r="18" spans="19:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S18">
         <v>50</v>
       </c>
@@ -3033,7 +4111,7 @@
         <v>24899.27238072854</v>
       </c>
     </row>
-    <row r="19" spans="19:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S19">
         <v>55</v>
       </c>
@@ -3046,7 +4124,7 @@
         <v>21973.530752603099</v>
       </c>
     </row>
-    <row r="20" spans="19:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S20">
         <v>60</v>
       </c>
@@ -3059,7 +4137,7 @@
         <v>19391.572828019591</v>
       </c>
     </row>
-    <row r="21" spans="19:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S21">
         <v>65</v>
       </c>
@@ -3072,7 +4150,7 @@
         <v>17113.002956970893</v>
       </c>
     </row>
-    <row r="22" spans="19:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="19:21" x14ac:dyDescent="0.25">
       <c r="S22">
         <v>68</v>
       </c>
@@ -3083,6 +4161,183 @@
       <c r="U22">
         <f t="shared" si="1"/>
         <v>15876.477024851007</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <f>(F4*$I$4)+$J$4</f>
+        <v>58.5</v>
+      </c>
+      <c r="I4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="0">(F5*$I$4)+$J$4</f>
+        <v>50.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>43.65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>-4</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>23.85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
